--- a/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaChiTiet.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C996043E-D362-4B55-B826-31AC2F6C012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Mã tiếp nhận</t>
   </si>
@@ -101,11 +113,14 @@
   <si>
     <t>Chi phí</t>
   </si>
+  <si>
+    <t>Giảm trừ BH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -113,7 +128,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +136,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,7 +144,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,41 +541,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:W1"/>
+      <selection pane="bottomLeft" sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -586,8 +602,9 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -613,8 +630,9 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -640,8 +658,9 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-    </row>
-    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="7"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -691,28 +710,31 @@
         <v>15</v>
       </c>
       <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -734,10 +756,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -759,10 +782,11 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="3"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -784,10 +808,11 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="3"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -809,10 +834,11 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -834,10 +860,11 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -859,10 +886,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -884,10 +912,11 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="3"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -909,10 +938,11 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -934,10 +964,11 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -959,10 +990,11 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -984,10 +1016,11 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -1009,10 +1042,11 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -1034,10 +1068,11 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1059,10 +1094,11 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -1084,10 +1120,11 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -1109,10 +1146,11 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -1134,10 +1172,11 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -1159,10 +1198,11 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1184,10 +1224,11 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="3"/>
       <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1209,10 +1250,11 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1234,10 +1276,11 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1259,10 +1302,11 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1284,10 +1328,11 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="3"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1309,10 +1354,11 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="1"/>
+      <c r="V29" s="3"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1334,10 +1380,11 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="1"/>
+      <c r="V30" s="3"/>
       <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1359,10 +1406,11 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="1"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1384,10 +1432,11 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="3"/>
       <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1409,10 +1458,11 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="1"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1434,10 +1484,11 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="1"/>
+      <c r="V34" s="3"/>
       <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1459,10 +1510,11 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="3"/>
       <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1484,10 +1536,11 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="1"/>
+      <c r="V36" s="3"/>
       <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1509,10 +1562,11 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="1"/>
+      <c r="V37" s="3"/>
       <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1534,10 +1588,11 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="1"/>
+      <c r="V38" s="3"/>
       <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1559,10 +1614,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="1"/>
+      <c r="V39" s="3"/>
       <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1584,10 +1640,11 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="1"/>
+      <c r="V40" s="3"/>
       <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1609,10 +1666,11 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="3"/>
       <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1634,10 +1692,11 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="1"/>
+      <c r="V42" s="3"/>
       <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1659,10 +1718,11 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="1"/>
+      <c r="V43" s="3"/>
       <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1684,10 +1744,11 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="1"/>
+      <c r="V44" s="3"/>
       <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1709,10 +1770,11 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="1"/>
+      <c r="V45" s="3"/>
       <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1734,10 +1796,11 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="1"/>
+      <c r="V46" s="3"/>
       <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1759,10 +1822,11 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="3"/>
       <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1784,10 +1848,11 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="1"/>
+      <c r="V48" s="3"/>
       <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1809,10 +1874,11 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="1"/>
+      <c r="V49" s="3"/>
       <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1834,10 +1900,11 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="1"/>
+      <c r="V50" s="3"/>
       <c r="W50" s="1"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1859,10 +1926,11 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="1"/>
+      <c r="V51" s="3"/>
       <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1884,10 +1952,11 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="1"/>
+      <c r="V52" s="3"/>
       <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1909,10 +1978,11 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
-      <c r="V53" s="1"/>
+      <c r="V53" s="3"/>
       <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1934,10 +2004,11 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="1"/>
+      <c r="V54" s="3"/>
       <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1959,10 +2030,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="1"/>
+      <c r="V55" s="3"/>
       <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1984,10 +2056,11 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="1"/>
+      <c r="V56" s="3"/>
       <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -2009,10 +2082,11 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="1"/>
+      <c r="V57" s="3"/>
       <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2034,10 +2108,11 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="1"/>
+      <c r="V58" s="3"/>
       <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2059,10 +2134,11 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="1"/>
+      <c r="V59" s="3"/>
       <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2084,10 +2160,11 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
-      <c r="V60" s="1"/>
+      <c r="V60" s="3"/>
       <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2109,10 +2186,11 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="1"/>
+      <c r="V61" s="3"/>
       <c r="W61" s="1"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2134,10 +2212,11 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
-      <c r="V62" s="1"/>
+      <c r="V62" s="3"/>
       <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2159,10 +2238,11 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
-      <c r="V63" s="1"/>
+      <c r="V63" s="3"/>
       <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2184,10 +2264,11 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="1"/>
+      <c r="V64" s="3"/>
       <c r="W64" s="1"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2209,10 +2290,11 @@
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
-      <c r="V65" s="1"/>
+      <c r="V65" s="3"/>
       <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2234,10 +2316,11 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="1"/>
+      <c r="V66" s="3"/>
       <c r="W66" s="1"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2259,10 +2342,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="1"/>
+      <c r="V67" s="3"/>
       <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2284,10 +2368,11 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="1"/>
+      <c r="V68" s="3"/>
       <c r="W68" s="1"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2309,10 +2394,11 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="1"/>
+      <c r="V69" s="3"/>
       <c r="W69" s="1"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2334,10 +2420,11 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="1"/>
+      <c r="V70" s="3"/>
       <c r="W70" s="1"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2359,10 +2446,11 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="1"/>
+      <c r="V71" s="3"/>
       <c r="W71" s="1"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2384,10 +2472,11 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="1"/>
+      <c r="V72" s="3"/>
       <c r="W72" s="1"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2409,10 +2498,11 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
-      <c r="V73" s="1"/>
+      <c r="V73" s="3"/>
       <c r="W73" s="1"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2434,10 +2524,11 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
-      <c r="V74" s="1"/>
+      <c r="V74" s="3"/>
       <c r="W74" s="1"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2459,10 +2550,11 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="1"/>
+      <c r="V75" s="3"/>
       <c r="W75" s="1"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2484,10 +2576,11 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="1"/>
+      <c r="V76" s="3"/>
       <c r="W76" s="1"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2509,10 +2602,11 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="1"/>
+      <c r="V77" s="3"/>
       <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2534,10 +2628,11 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
-      <c r="V78" s="1"/>
+      <c r="V78" s="3"/>
       <c r="W78" s="1"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2559,10 +2654,11 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
-      <c r="V79" s="1"/>
+      <c r="V79" s="3"/>
       <c r="W79" s="1"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2584,10 +2680,11 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
-      <c r="V80" s="1"/>
+      <c r="V80" s="3"/>
       <c r="W80" s="1"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2609,10 +2706,11 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
-      <c r="V81" s="1"/>
+      <c r="V81" s="3"/>
       <c r="W81" s="1"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2634,10 +2732,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-      <c r="V82" s="1"/>
+      <c r="V82" s="3"/>
       <c r="W82" s="1"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2659,10 +2758,11 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="V83" s="1"/>
+      <c r="V83" s="3"/>
       <c r="W83" s="1"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2684,10 +2784,11 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-      <c r="V84" s="1"/>
+      <c r="V84" s="3"/>
       <c r="W84" s="1"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2709,10 +2810,11 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
-      <c r="V85" s="1"/>
+      <c r="V85" s="3"/>
       <c r="W85" s="1"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2734,10 +2836,11 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
-      <c r="V86" s="1"/>
+      <c r="V86" s="3"/>
       <c r="W86" s="1"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2759,10 +2862,11 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
-      <c r="V87" s="1"/>
+      <c r="V87" s="3"/>
       <c r="W87" s="1"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2784,10 +2888,11 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
-      <c r="V88" s="1"/>
+      <c r="V88" s="3"/>
       <c r="W88" s="1"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2809,10 +2914,11 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
-      <c r="V89" s="1"/>
+      <c r="V89" s="3"/>
       <c r="W89" s="1"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2834,10 +2940,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="1"/>
+      <c r="V90" s="3"/>
       <c r="W90" s="1"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2859,10 +2966,11 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
-      <c r="V91" s="1"/>
+      <c r="V91" s="3"/>
       <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2884,10 +2992,11 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="1"/>
+      <c r="V92" s="3"/>
       <c r="W92" s="1"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2909,10 +3018,11 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="1"/>
+      <c r="V93" s="3"/>
       <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2934,10 +3044,11 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
-      <c r="V94" s="1"/>
+      <c r="V94" s="3"/>
       <c r="W94" s="1"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2959,10 +3070,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-      <c r="V95" s="1"/>
+      <c r="V95" s="3"/>
       <c r="W95" s="1"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2984,10 +3096,11 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
-      <c r="V96" s="1"/>
+      <c r="V96" s="3"/>
       <c r="W96" s="1"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -3009,10 +3122,11 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
-      <c r="V97" s="1"/>
+      <c r="V97" s="3"/>
       <c r="W97" s="1"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -3034,10 +3148,11 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
-      <c r="V98" s="1"/>
+      <c r="V98" s="3"/>
       <c r="W98" s="1"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -3059,10 +3174,11 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
-      <c r="V99" s="1"/>
+      <c r="V99" s="3"/>
       <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -3084,10 +3200,11 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
-      <c r="V100" s="1"/>
+      <c r="V100" s="3"/>
       <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>24</v>
       </c>
@@ -3141,15 +3258,19 @@
         <f>SUM(U$6:U100)</f>
         <v>0</v>
       </c>
-      <c r="V101" s="8"/>
+      <c r="V101" s="4">
+        <f>SUM(V$6:V100)</f>
+        <v>0</v>
+      </c>
       <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="V101:W101"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="W101:X101"/>
     <mergeCell ref="A101:K101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
